--- a/test/playbook.xlsx
+++ b/test/playbook.xlsx
@@ -21265,13 +21265,13 @@
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="E3" s="13" t="n">
         <v>0</v>
@@ -21309,13 +21309,13 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>0</v>
@@ -21334,13 +21334,13 @@
         <v>0.25</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0</v>
@@ -21375,16 +21375,16 @@
         </is>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="C8" s="13" t="n">
         <v>0.21</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.19</v>
@@ -21446,11 +21446,11 @@
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>Hierarchical</t>
+          <t>Birch</t>
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="C12" s="13" t="n">
         <v>0.5</v>
@@ -21484,7 +21484,7 @@
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="13" t="inlineStr">
         <is>
-          <t>Birch</t>
+          <t>Hierarchical</t>
         </is>
       </c>
       <c r="B14" s="13" t="n">
@@ -21516,7 +21516,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -21535,7 +21535,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -25733,7 +25733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25748,10 +25748,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
     <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="50" max="50"/>
-    <col width="25" customWidth="1" min="51" max="51"/>
-    <col width="25" customWidth="1" min="52" max="52"/>
-    <col width="25" customWidth="1" min="53" max="53"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="122" max="122"/>
     <col width="25" customWidth="1" min="123" max="123"/>
   </cols>
@@ -29062,27 +29060,27 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="13" t="inlineStr">
         <is>
-          <t>tot_paid_amt_processed</t>
+          <t>op_rehab_allowed_amt_processed</t>
         </is>
       </c>
       <c r="B125" s="13" t="n">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="13" t="inlineStr">
         <is>
-          <t>op_rehab_allowed_amt_processed</t>
+          <t>tot_allow_amt_processed</t>
         </is>
       </c>
       <c r="B126" s="13" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="13" t="inlineStr">
         <is>
-          <t>medical_copay_pmpm_processed</t>
+          <t>srv_copay_amt_processed</t>
         </is>
       </c>
       <c r="B127" s="13" t="n">
@@ -29100,528 +29098,88 @@
       </c>
     </row>
     <row r="129" ht="25" customHeight="1">
-      <c r="A129" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_AE</t>
-        </is>
-      </c>
-      <c r="B129" s="13" t="n">
-        <v>0.09</v>
+      <c r="A129" s="33" t="inlineStr">
+        <is>
+          <t>Cramers Matrix</t>
+        </is>
       </c>
     </row>
     <row r="130" ht="25" customHeight="1">
-      <c r="A130" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_AK</t>
-        </is>
-      </c>
-      <c r="B130" s="13" t="n">
-        <v>0.79</v>
+      <c r="A130" s="34" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="B130" s="34" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="C130" s="34" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="D130" s="34" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
       </c>
     </row>
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="13" t="inlineStr">
         <is>
-          <t>state_cd_AL</t>
+          <t>lob</t>
         </is>
       </c>
       <c r="B131" s="13" t="n">
-        <v>0.31</v>
+        <v>1</v>
+      </c>
+      <c r="C131" s="13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D131" s="13" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="13" t="inlineStr">
         <is>
-          <t>state_cd_AP</t>
+          <t>urbsubr</t>
         </is>
       </c>
       <c r="B132" s="13" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
+      </c>
+      <c r="C132" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" s="13" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="13" t="inlineStr">
         <is>
-          <t>state_cd_AR</t>
+          <t>state_cd</t>
         </is>
       </c>
       <c r="B133" s="13" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="134" ht="25" customHeight="1">
-      <c r="A134" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_CO</t>
-        </is>
-      </c>
-      <c r="B134" s="13" t="n">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="135" ht="25" customHeight="1">
-      <c r="A135" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_CT</t>
-        </is>
-      </c>
-      <c r="B135" s="13" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="136" ht="25" customHeight="1">
-      <c r="A136" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_DC</t>
-        </is>
-      </c>
-      <c r="B136" s="13" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="137" ht="25" customHeight="1">
-      <c r="A137" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_DE</t>
-        </is>
-      </c>
-      <c r="B137" s="13" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="138" ht="25" customHeight="1">
-      <c r="A138" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_GU</t>
-        </is>
-      </c>
-      <c r="B138" s="13" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="139" ht="25" customHeight="1">
-      <c r="A139" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_HI</t>
-        </is>
-      </c>
-      <c r="B139" s="13" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="140" ht="25" customHeight="1">
-      <c r="A140" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_IA</t>
-        </is>
-      </c>
-      <c r="B140" s="13" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="141" ht="25" customHeight="1">
-      <c r="A141" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_ID</t>
-        </is>
-      </c>
-      <c r="B141" s="13" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="142" ht="25" customHeight="1">
-      <c r="A142" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_IN</t>
-        </is>
-      </c>
-      <c r="B142" s="13" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="143" ht="25" customHeight="1">
-      <c r="A143" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_KS</t>
-        </is>
-      </c>
-      <c r="B143" s="13" t="n">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="144" ht="25" customHeight="1">
-      <c r="A144" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_KY</t>
-        </is>
-      </c>
-      <c r="B144" s="13" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="145" ht="25" customHeight="1">
-      <c r="A145" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_LA</t>
-        </is>
-      </c>
-      <c r="B145" s="13" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="146" ht="25" customHeight="1">
-      <c r="A146" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MA</t>
-        </is>
-      </c>
-      <c r="B146" s="13" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="147" ht="25" customHeight="1">
-      <c r="A147" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MD</t>
-        </is>
-      </c>
-      <c r="B147" s="13" t="n">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="148" ht="25" customHeight="1">
-      <c r="A148" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_ME</t>
-        </is>
-      </c>
-      <c r="B148" s="13" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="149" ht="25" customHeight="1">
-      <c r="A149" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MI</t>
-        </is>
-      </c>
-      <c r="B149" s="13" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="150" ht="25" customHeight="1">
-      <c r="A150" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MN</t>
-        </is>
-      </c>
-      <c r="B150" s="13" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="151" ht="25" customHeight="1">
-      <c r="A151" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MO</t>
-        </is>
-      </c>
-      <c r="B151" s="13" t="n">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="152" ht="25" customHeight="1">
-      <c r="A152" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MP</t>
-        </is>
-      </c>
-      <c r="B152" s="13" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="153" ht="25" customHeight="1">
-      <c r="A153" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MS</t>
-        </is>
-      </c>
-      <c r="B153" s="13" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="154" ht="25" customHeight="1">
-      <c r="A154" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MT</t>
-        </is>
-      </c>
-      <c r="B154" s="13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C133" s="13" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="155" ht="25" customHeight="1">
-      <c r="A155" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NC</t>
-        </is>
-      </c>
-      <c r="B155" s="13" t="n">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="156" ht="25" customHeight="1">
-      <c r="A156" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_ND</t>
-        </is>
-      </c>
-      <c r="B156" s="13" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="157" ht="25" customHeight="1">
-      <c r="A157" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NE</t>
-        </is>
-      </c>
-      <c r="B157" s="13" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="158" ht="25" customHeight="1">
-      <c r="A158" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NH</t>
-        </is>
-      </c>
-      <c r="B158" s="13" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="159" ht="25" customHeight="1">
-      <c r="A159" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NM</t>
-        </is>
-      </c>
-      <c r="B159" s="13" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="160" ht="25" customHeight="1">
-      <c r="A160" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NV</t>
-        </is>
-      </c>
-      <c r="B160" s="13" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="161" ht="25" customHeight="1">
-      <c r="A161" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_OK</t>
-        </is>
-      </c>
-      <c r="B161" s="13" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="162" ht="25" customHeight="1">
-      <c r="A162" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_OR</t>
-        </is>
-      </c>
-      <c r="B162" s="13" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="163" ht="25" customHeight="1">
-      <c r="A163" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_RI</t>
-        </is>
-      </c>
-      <c r="B163" s="13" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="164" ht="25" customHeight="1">
-      <c r="A164" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_SC</t>
-        </is>
-      </c>
-      <c r="B164" s="13" t="n">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="165" ht="25" customHeight="1">
-      <c r="A165" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_SD</t>
-        </is>
-      </c>
-      <c r="B165" s="13" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="166" ht="25" customHeight="1">
-      <c r="A166" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_TN</t>
-        </is>
-      </c>
-      <c r="B166" s="13" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="167" ht="25" customHeight="1">
-      <c r="A167" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_UT</t>
-        </is>
-      </c>
-      <c r="B167" s="13" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="168" ht="25" customHeight="1">
-      <c r="A168" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_VT</t>
-        </is>
-      </c>
-      <c r="B168" s="13" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="169" ht="25" customHeight="1">
-      <c r="A169" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_WA</t>
-        </is>
-      </c>
-      <c r="B169" s="13" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="170" ht="25" customHeight="1">
-      <c r="A170" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_WI</t>
-        </is>
-      </c>
-      <c r="B170" s="13" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="171" ht="25" customHeight="1">
-      <c r="A171" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_WV</t>
-        </is>
-      </c>
-      <c r="B171" s="13" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="172" ht="25" customHeight="1">
-      <c r="A172" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_WY</t>
-        </is>
-      </c>
-      <c r="B172" s="13" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="173" ht="25" customHeight="1">
-      <c r="A173" s="33" t="inlineStr">
-        <is>
-          <t>Cramers Matrix</t>
-        </is>
-      </c>
-    </row>
-    <row r="174" ht="25" customHeight="1">
-      <c r="A174" s="34" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B174" s="34" t="inlineStr">
-        <is>
-          <t>state_cd</t>
-        </is>
-      </c>
-      <c r="C174" s="34" t="inlineStr">
-        <is>
-          <t>urbsubr</t>
-        </is>
-      </c>
-      <c r="D174" s="34" t="inlineStr">
-        <is>
-          <t>lob</t>
-        </is>
-      </c>
-    </row>
-    <row r="175" ht="25" customHeight="1">
-      <c r="A175" s="13" t="inlineStr">
-        <is>
-          <t>state_cd</t>
-        </is>
-      </c>
-      <c r="B175" s="13" t="n">
+      <c r="D133" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C175" s="13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D175" s="13" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="176" ht="25" customHeight="1">
-      <c r="A176" s="13" t="inlineStr">
-        <is>
-          <t>urbsubr</t>
-        </is>
-      </c>
-      <c r="B176" s="13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C176" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D176" s="13" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="177" ht="25" customHeight="1">
-      <c r="A177" s="13" t="inlineStr">
-        <is>
-          <t>lob</t>
-        </is>
-      </c>
-      <c r="B177" s="13" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C177" s="13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D177" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" ht="25" customHeight="1"/>
+    </row>
+    <row r="134" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A123:B123"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A129:D129"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29693,12 +29251,12 @@
       </c>
       <c r="D2" s="34" t="inlineStr">
         <is>
+          <t>first_pulse</t>
+        </is>
+      </c>
+      <c r="E2" s="34" t="inlineStr">
+        <is>
           <t>pulse</t>
-        </is>
-      </c>
-      <c r="E2" s="34" t="inlineStr">
-        <is>
-          <t>first_pulse</t>
         </is>
       </c>
       <c r="F2" s="34" t="inlineStr">
@@ -29712,19 +29270,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>42.52008393285372</v>
+        <v>42.88088808880888</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>98497.67837738623</v>
+        <v>100514.6097061815</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>8.170854429028813</v>
+        <v>8.110225545058141</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>8.102578730272592</v>
+        <v>8.166538998919698</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>8.431075753228118</v>
+        <v>8.44429476744186</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1">
@@ -29732,19 +29290,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>42.08738738738739</v>
+        <v>42.13001797483523</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>101057.4967374889</v>
+        <v>100953.7385706902</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>8.154192037302728</v>
+        <v>8.112910358565737</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>8.111282746095169</v>
+        <v>8.156249105865523</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>8.44145154377043</v>
+        <v>8.443240094168779</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1">
@@ -29752,19 +29310,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>42.89262147570486</v>
+        <v>42.49023730850105</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>100429.4765846274</v>
+        <v>98510.81778973501</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>8.168298380712471</v>
+        <v>8.102429870596694</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>8.111726652142346</v>
+        <v>8.17059147950089</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>8.445715613652867</v>
+        <v>8.430686915887851</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -29792,12 +29350,12 @@
       </c>
       <c r="D8" s="34" t="inlineStr">
         <is>
+          <t>first_pulse</t>
+        </is>
+      </c>
+      <c r="E8" s="34" t="inlineStr">
+        <is>
           <t>pulse</t>
-        </is>
-      </c>
-      <c r="E8" s="34" t="inlineStr">
-        <is>
-          <t>first_pulse</t>
         </is>
       </c>
       <c r="F8" s="34" t="inlineStr">
@@ -29811,19 +29369,19 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>86000</v>
+        <v>87000</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>8.0823</v>
+        <v>7.997199999999999</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>7.991400000000001</v>
+        <v>8.0786</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>8.336099999999998</v>
+        <v>8.325799999999999</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -29837,13 +29395,13 @@
         <v>87052.8882</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>8.053900000000001</v>
+        <v>7.9876</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>7.9862</v>
+        <v>8.056049999999999</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>8.331899999999999</v>
+        <v>8.333500000000001</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -29851,19 +29409,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="13" t="n">
-        <v>87000</v>
+        <v>86000</v>
       </c>
       <c r="D11" s="13" t="n">
-        <v>8.081300000000001</v>
+        <v>7.99005</v>
       </c>
       <c r="E11" s="13" t="n">
-        <v>7.997199999999999</v>
+        <v>8.0822</v>
       </c>
       <c r="F11" s="13" t="n">
-        <v>8.3268</v>
+        <v>8.336099999999998</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -29891,12 +29449,12 @@
       </c>
       <c r="D14" s="34" t="inlineStr">
         <is>
+          <t>first_pulse</t>
+        </is>
+      </c>
+      <c r="E14" s="34" t="inlineStr">
+        <is>
           <t>pulse</t>
-        </is>
-      </c>
-      <c r="E14" s="34" t="inlineStr">
-        <is>
-          <t>first_pulse</t>
         </is>
       </c>
       <c r="F14" s="34" t="inlineStr">
@@ -29910,19 +29468,19 @@
         <v>0</v>
       </c>
       <c r="B15" s="13" t="n">
-        <v>22.91630462801646</v>
+        <v>22.82297677953092</v>
       </c>
       <c r="C15" s="13" t="n">
-        <v>70139.56332630484</v>
+        <v>75217.66103529104</v>
       </c>
       <c r="D15" s="13" t="n">
-        <v>1.038879367058452</v>
+        <v>1.050871969971416</v>
       </c>
       <c r="E15" s="13" t="n">
-        <v>1.028299757501135</v>
+        <v>1.072094402159661</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>1.01855741216003</v>
+        <v>1.028679047050645</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -29930,19 +29488,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="n">
-        <v>22.84155705788373</v>
+        <v>22.85092318704273</v>
       </c>
       <c r="C16" s="13" t="n">
-        <v>73545.68294018554</v>
+        <v>73499.51785892712</v>
       </c>
       <c r="D16" s="13" t="n">
-        <v>1.068305932562551</v>
+        <v>1.038327569519632</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>1.037500083211408</v>
+        <v>1.06888036099502</v>
       </c>
       <c r="F16" s="13" t="n">
-        <v>1.03046234586642</v>
+        <v>1.030848603383833</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -29950,26 +29508,26 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="n">
-        <v>22.83432521856754</v>
+        <v>22.9193423513824</v>
       </c>
       <c r="C17" s="13" t="n">
-        <v>75208.49330007608</v>
+        <v>70172.51113711251</v>
       </c>
       <c r="D17" s="13" t="n">
-        <v>1.072751346423613</v>
+        <v>1.028811603096785</v>
       </c>
       <c r="E17" s="13" t="n">
-        <v>1.05220948690419</v>
+        <v>1.038925890135985</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>1.028444835766027</v>
+        <v>1.017907479267141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A13:F13"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30050,10 +29608,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="38" t="n">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="E3" s="39" t="n">
-        <v>33.24979114452798</v>
+        <v>35.17126148705096</v>
       </c>
       <c r="F3" s="37" t="n"/>
     </row>
@@ -30072,10 +29630,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="38" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E4" s="39" t="n">
-        <v>31.74603174603174</v>
+        <v>31.82957393483709</v>
       </c>
       <c r="F4" s="37" t="n"/>
     </row>
@@ -30094,10 +29652,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="38" t="n">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="E5" s="39" t="n">
-        <v>35.00417710944026</v>
+        <v>32.99916457811194</v>
       </c>
       <c r="F5" s="37" t="n"/>
     </row>
@@ -30116,10 +29674,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="38" t="n">
-        <v>2413</v>
+        <v>2399</v>
       </c>
       <c r="E6" s="39" t="n">
-        <v>33.21861233480176</v>
+        <v>33.02588105726873</v>
       </c>
       <c r="F6" s="37" t="n"/>
     </row>
@@ -30138,10 +29696,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="38" t="n">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="E7" s="39" t="n">
-        <v>33.75550660792951</v>
+        <v>33.81057268722467</v>
       </c>
       <c r="F7" s="37" t="n"/>
     </row>
@@ -30160,10 +29718,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="38" t="n">
-        <v>2399</v>
+        <v>2409</v>
       </c>
       <c r="E8" s="39" t="n">
-        <v>33.02588105726873</v>
+        <v>33.16354625550661</v>
       </c>
       <c r="F8" s="37" t="n"/>
     </row>
@@ -30182,10 +29740,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="38" t="n">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="E9" s="39" t="n">
-        <v>34.1130604288499</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F9" s="37" t="n"/>
     </row>
@@ -30204,10 +29762,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="38" t="n">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E10" s="39" t="n">
-        <v>32.35867446393762</v>
+        <v>32.55360623781677</v>
       </c>
       <c r="F10" s="37" t="n"/>
     </row>
@@ -30226,10 +29784,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="40" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="E11" s="40" t="n">
-        <v>33.52826510721248</v>
+        <v>34.1130604288499</v>
       </c>
       <c r="F11" s="37" t="n"/>
     </row>
@@ -30248,10 +29806,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="38" t="n">
-        <v>1747</v>
+        <v>1721</v>
       </c>
       <c r="E12" s="39" t="n">
-        <v>33.63496341932999</v>
+        <v>33.13438582980362</v>
       </c>
       <c r="F12" s="37" t="n"/>
     </row>
@@ -30270,10 +29828,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="38" t="n">
-        <v>1724</v>
+        <v>1730</v>
       </c>
       <c r="E13" s="39" t="n">
-        <v>33.19214478244128</v>
+        <v>33.30766268771659</v>
       </c>
       <c r="F13" s="37" t="n"/>
     </row>
@@ -30292,10 +29850,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="38" t="n">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="E14" s="39" t="n">
-        <v>33.17289179822873</v>
+        <v>33.55795148247979</v>
       </c>
       <c r="F14" s="37" t="n"/>
     </row>
@@ -30314,10 +29872,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="38" t="n">
-        <v>1589</v>
+        <v>1612</v>
       </c>
       <c r="E15" s="39" t="n">
-        <v>33.0628381190179</v>
+        <v>33.54140657511444</v>
       </c>
       <c r="F15" s="37" t="n"/>
     </row>
@@ -30336,10 +29894,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="38" t="n">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="E16" s="39" t="n">
-        <v>33.41656263004577</v>
+        <v>33.458177278402</v>
       </c>
       <c r="F16" s="37" t="n"/>
     </row>
@@ -30358,10 +29916,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="40" t="n">
-        <v>1611</v>
+        <v>1586</v>
       </c>
       <c r="E17" s="40" t="n">
-        <v>33.52059925093633</v>
+        <v>33.00041614648357</v>
       </c>
       <c r="F17" s="37" t="n"/>
     </row>
@@ -30378,10 +29936,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="38" t="n">
-        <v>1275</v>
+        <v>1291</v>
       </c>
       <c r="E18" s="39" t="n">
-        <v>33.15994798439532</v>
+        <v>33.57607282184655</v>
       </c>
       <c r="F18" s="37" t="n"/>
     </row>
@@ -30398,10 +29956,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="38" t="n">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="E19" s="39" t="n">
-        <v>33.21196358907672</v>
+        <v>33.28998699609883</v>
       </c>
       <c r="F19" s="37" t="n"/>
     </row>
@@ -30418,10 +29976,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="38" t="n">
-        <v>1293</v>
+        <v>1274</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>33.62808842652796</v>
+        <v>33.13394018205462</v>
       </c>
       <c r="F20" s="37" t="n"/>
     </row>
@@ -30438,10 +29996,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="38" t="n">
-        <v>2061</v>
+        <v>2042</v>
       </c>
       <c r="E21" s="39" t="n">
-        <v>33.48497156783103</v>
+        <v>33.17627944760358</v>
       </c>
       <c r="F21" s="37" t="n"/>
     </row>
@@ -30458,10 +30016,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="38" t="n">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>33.35499593826158</v>
+        <v>33.43623070674249</v>
       </c>
       <c r="F22" s="37" t="n"/>
     </row>
@@ -30478,10 +30036,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="40" t="n">
-        <v>2041</v>
+        <v>2055</v>
       </c>
       <c r="E23" s="40" t="n">
-        <v>33.16003249390739</v>
+        <v>33.38748984565394</v>
       </c>
       <c r="F23" s="37" t="n"/>
     </row>
@@ -30500,10 +30058,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="38" t="n">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="E24" s="39" t="n">
-        <v>33.4136546184739</v>
+        <v>32.85140562248996</v>
       </c>
       <c r="F24" s="37" t="n"/>
     </row>
@@ -30544,10 +30102,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="38" t="n">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="E26" s="39" t="n">
-        <v>32.81124497991968</v>
+        <v>33.37349397590361</v>
       </c>
       <c r="F26" s="37" t="n"/>
     </row>
@@ -30566,10 +30124,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="38" t="n">
-        <v>1883</v>
+        <v>1910</v>
       </c>
       <c r="E27" s="39" t="n">
-        <v>33.26855123674912</v>
+        <v>33.74558303886926</v>
       </c>
       <c r="F27" s="37" t="n"/>
     </row>
@@ -30588,10 +30146,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="38" t="n">
-        <v>1862</v>
+        <v>1870</v>
       </c>
       <c r="E28" s="39" t="n">
-        <v>32.89752650176678</v>
+        <v>33.03886925795053</v>
       </c>
       <c r="F28" s="37" t="n"/>
     </row>
@@ -30610,10 +30168,10 @@
         <v>2</v>
       </c>
       <c r="D29" s="38" t="n">
-        <v>1915</v>
+        <v>1880</v>
       </c>
       <c r="E29" s="39" t="n">
-        <v>33.8339222614841</v>
+        <v>33.21554770318021</v>
       </c>
       <c r="F29" s="37" t="n"/>
     </row>
@@ -30632,10 +30190,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="39" t="n">
-        <v>42.85714285714285</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F30" s="37" t="n"/>
     </row>
@@ -30676,10 +30234,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="39" t="n">
-        <v>28.57142857142857</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F32" s="37" t="n"/>
     </row>
@@ -30698,10 +30256,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F33" s="37" t="n"/>
     </row>
@@ -30742,10 +30300,10 @@
         <v>2</v>
       </c>
       <c r="D35" s="38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F35" s="37" t="n"/>
     </row>
@@ -30764,10 +30322,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="38" t="n">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="E36" s="39" t="n">
-        <v>34.16905444126074</v>
+        <v>32.23495702005731</v>
       </c>
       <c r="F36" s="37" t="n"/>
     </row>
@@ -30808,10 +30366,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="38" t="n">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>32.02005730659026</v>
+        <v>33.95415472779369</v>
       </c>
       <c r="F38" s="37" t="n"/>
     </row>
@@ -30850,10 +30408,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="38" t="n">
-        <v>769</v>
+        <v>728</v>
       </c>
       <c r="E40" s="39" t="n">
-        <v>34.34569004019652</v>
+        <v>32.51451540866459</v>
       </c>
       <c r="F40" s="37" t="n"/>
     </row>
@@ -30870,10 +30428,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="38" t="n">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>33.09513175524788</v>
+        <v>33.18445734702992</v>
       </c>
       <c r="F41" s="37" t="n"/>
     </row>
@@ -30890,10 +30448,10 @@
         <v>2</v>
       </c>
       <c r="D42" s="38" t="n">
-        <v>729</v>
+        <v>768</v>
       </c>
       <c r="E42" s="39" t="n">
-        <v>32.55917820455561</v>
+        <v>34.30102724430549</v>
       </c>
       <c r="F42" s="37" t="n"/>
     </row>
@@ -30910,10 +30468,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="38" t="n">
-        <v>2434</v>
+        <v>2459</v>
       </c>
       <c r="E43" s="39" t="n">
-        <v>33.15624574308677</v>
+        <v>33.49679880125323</v>
       </c>
       <c r="F43" s="37" t="n"/>
     </row>
@@ -30930,10 +30488,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="38" t="n">
-        <v>2448</v>
+        <v>2454</v>
       </c>
       <c r="E44" s="39" t="n">
-        <v>33.34695545565999</v>
+        <v>33.42868818961994</v>
       </c>
       <c r="F44" s="37" t="n"/>
     </row>
@@ -30950,10 +30508,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="40" t="n">
-        <v>2459</v>
+        <v>2428</v>
       </c>
       <c r="E45" s="40" t="n">
-        <v>33.49679880125323</v>
+        <v>33.07451300912682</v>
       </c>
       <c r="F45" s="37" t="n"/>
     </row>
@@ -30970,10 +30528,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="38" t="n">
-        <v>2580</v>
+        <v>2596</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>33.36350704771757</v>
+        <v>33.57041251778094</v>
       </c>
       <c r="F46" s="37" t="n"/>
     </row>
@@ -30990,10 +30548,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="38" t="n">
-        <v>2557</v>
+        <v>2564</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>33.06608043450149</v>
+        <v>33.15660157765421</v>
       </c>
       <c r="F47" s="37" t="n"/>
     </row>
@@ -31010,10 +30568,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="38" t="n">
-        <v>2596</v>
+        <v>2573</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>33.57041251778094</v>
+        <v>33.27298590456485</v>
       </c>
       <c r="F48" s="37" t="n"/>
     </row>
@@ -31030,10 +30588,10 @@
         <v>0</v>
       </c>
       <c r="D49" s="38" t="n">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>33.73037357877639</v>
+        <v>31.99783432593395</v>
       </c>
       <c r="F49" s="37" t="n"/>
     </row>
@@ -31050,10 +30608,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="38" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E50" s="39" t="n">
-        <v>34.21765024363833</v>
+        <v>34.27179209528966</v>
       </c>
       <c r="F50" s="37" t="n"/>
     </row>
@@ -31070,10 +30628,10 @@
         <v>2</v>
       </c>
       <c r="D51" s="40" t="n">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="E51" s="40" t="n">
-        <v>32.05197617758527</v>
+        <v>33.73037357877639</v>
       </c>
       <c r="F51" s="37" t="n"/>
     </row>
@@ -31090,10 +30648,10 @@
         <v>0</v>
       </c>
       <c r="D52" s="38" t="n">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="E52" s="39" t="n">
-        <v>33.14257684761282</v>
+        <v>33.06082406801831</v>
       </c>
       <c r="F52" s="37" t="n"/>
     </row>
@@ -31110,10 +30668,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="38" t="n">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="E53" s="39" t="n">
-        <v>33.79659908436886</v>
+        <v>33.86200130804448</v>
       </c>
       <c r="F53" s="37" t="n"/>
     </row>
@@ -31130,10 +30688,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="38" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>33.06082406801831</v>
+        <v>33.07717462393722</v>
       </c>
       <c r="F54" s="37" t="n"/>
     </row>
@@ -31150,10 +30708,10 @@
         <v>0</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>1176</v>
+        <v>1165</v>
       </c>
       <c r="E55" s="39" t="n">
-        <v>33.94919168591224</v>
+        <v>33.63163972286375</v>
       </c>
       <c r="F55" s="37" t="n"/>
     </row>
@@ -31170,10 +30728,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="38" t="n">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="E56" s="39" t="n">
-        <v>32.39030023094688</v>
+        <v>32.50577367205543</v>
       </c>
       <c r="F56" s="37" t="n"/>
     </row>
@@ -31190,10 +30748,10 @@
         <v>2</v>
       </c>
       <c r="D57" s="40" t="n">
-        <v>1166</v>
+        <v>1173</v>
       </c>
       <c r="E57" s="40" t="n">
-        <v>33.66050808314088</v>
+        <v>33.86258660508083</v>
       </c>
       <c r="F57" s="37" t="n"/>
     </row>
@@ -31210,10 +30768,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="38" t="n">
-        <v>2907</v>
+        <v>2862</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>33.63415480735856</v>
+        <v>33.11350225616106</v>
       </c>
       <c r="F58" s="37" t="n"/>
     </row>
@@ -31230,10 +30788,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="38" t="n">
-        <v>2873</v>
+        <v>2881</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>33.24077287978711</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F59" s="37" t="n"/>
     </row>
@@ -31250,10 +30808,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="38" t="n">
-        <v>2863</v>
+        <v>2900</v>
       </c>
       <c r="E60" s="39" t="n">
-        <v>33.12507231285433</v>
+        <v>33.55316441050561</v>
       </c>
       <c r="F60" s="37" t="n"/>
     </row>
@@ -31270,10 +30828,10 @@
         <v>0</v>
       </c>
       <c r="D61" s="38" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="E61" s="39" t="n">
-        <v>31.59018143009605</v>
+        <v>34.68516542155816</v>
       </c>
       <c r="F61" s="37" t="n"/>
     </row>
@@ -31310,10 +30868,10 @@
         <v>2</v>
       </c>
       <c r="D63" s="40" t="n">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="E63" s="40" t="n">
-        <v>34.68516542155816</v>
+        <v>31.59018143009605</v>
       </c>
       <c r="F63" s="37" t="n"/>
     </row>
@@ -31330,10 +30888,10 @@
         <v>0</v>
       </c>
       <c r="D64" s="38" t="n">
-        <v>2737</v>
+        <v>2725</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>33.35770871419866</v>
+        <v>33.2114564290067</v>
       </c>
       <c r="F64" s="37" t="n"/>
     </row>
@@ -31350,10 +30908,10 @@
         <v>1</v>
       </c>
       <c r="D65" s="38" t="n">
-        <v>2745</v>
+        <v>2750</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>33.45521023765997</v>
+        <v>33.51614868982328</v>
       </c>
       <c r="F65" s="37" t="n"/>
     </row>
@@ -31370,10 +30928,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="38" t="n">
-        <v>2723</v>
+        <v>2730</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>33.18708104814137</v>
+        <v>33.27239488117002</v>
       </c>
       <c r="F66" s="37" t="n"/>
     </row>
@@ -31390,10 +30948,10 @@
         <v>0</v>
       </c>
       <c r="D67" s="38" t="n">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E67" s="39" t="n">
-        <v>33.89090909090909</v>
+        <v>33.6</v>
       </c>
       <c r="F67" s="37" t="n"/>
     </row>
@@ -31410,10 +30968,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="38" t="n">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>32.29090909090909</v>
+        <v>32.50909090909091</v>
       </c>
       <c r="F68" s="37" t="n"/>
     </row>
@@ -31430,10 +30988,10 @@
         <v>2</v>
       </c>
       <c r="D69" s="40" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E69" s="40" t="n">
-        <v>33.81818181818182</v>
+        <v>33.89090909090909</v>
       </c>
       <c r="F69" s="37" t="n"/>
     </row>
@@ -31450,10 +31008,10 @@
         <v>0</v>
       </c>
       <c r="D70" s="38" t="n">
-        <v>2328</v>
+        <v>2357</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>33.20022818026241</v>
+        <v>33.61380490587565</v>
       </c>
       <c r="F70" s="37" t="n"/>
     </row>
@@ -31470,10 +31028,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="38" t="n">
-        <v>2328</v>
+        <v>2334</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>33.20022818026241</v>
+        <v>33.28579577866515</v>
       </c>
       <c r="F71" s="37" t="n"/>
     </row>
@@ -31490,10 +31048,10 @@
         <v>2</v>
       </c>
       <c r="D72" s="38" t="n">
-        <v>2356</v>
+        <v>2321</v>
       </c>
       <c r="E72" s="39" t="n">
-        <v>33.59954363947519</v>
+        <v>33.10039931545921</v>
       </c>
       <c r="F72" s="37" t="n"/>
     </row>
@@ -31510,10 +31068,10 @@
         <v>0</v>
       </c>
       <c r="D73" s="38" t="n">
-        <v>1008</v>
+        <v>976</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>33.73493975903614</v>
+        <v>32.66398929049532</v>
       </c>
       <c r="F73" s="37" t="n"/>
     </row>
@@ -31530,10 +31088,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="38" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>33.53413654618474</v>
+        <v>33.60107095046854</v>
       </c>
       <c r="F74" s="37" t="n"/>
     </row>
@@ -31550,10 +31108,10 @@
         <v>2</v>
       </c>
       <c r="D75" s="40" t="n">
-        <v>978</v>
+        <v>1008</v>
       </c>
       <c r="E75" s="40" t="n">
-        <v>32.73092369477911</v>
+        <v>33.73493975903614</v>
       </c>
       <c r="F75" s="37" t="n"/>
     </row>
@@ -31570,10 +31128,10 @@
         <v>0</v>
       </c>
       <c r="D76" s="38" t="n">
-        <v>3021</v>
+        <v>3051</v>
       </c>
       <c r="E76" s="39" t="n">
-        <v>33.15044442005926</v>
+        <v>33.4796444639526</v>
       </c>
       <c r="F76" s="37" t="n"/>
     </row>
@@ -31590,10 +31148,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="38" t="n">
-        <v>3042</v>
+        <v>3048</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>33.38088445078459</v>
+        <v>33.44672445956326</v>
       </c>
       <c r="F77" s="37" t="n"/>
     </row>
@@ -31610,10 +31168,10 @@
         <v>2</v>
       </c>
       <c r="D78" s="38" t="n">
-        <v>3050</v>
+        <v>3014</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>33.46867112915615</v>
+        <v>33.07363107648415</v>
       </c>
       <c r="F78" s="37" t="n"/>
     </row>
@@ -31630,10 +31188,10 @@
         <v>0</v>
       </c>
       <c r="D79" s="38" t="n">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="E79" s="39" t="n">
-        <v>35.51296505073281</v>
+        <v>31.79255918827508</v>
       </c>
       <c r="F79" s="37" t="n"/>
     </row>
@@ -31650,10 +31208,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="38" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E80" s="39" t="n">
-        <v>32.46899661781285</v>
+        <v>32.69447576099211</v>
       </c>
       <c r="F80" s="37" t="n"/>
     </row>
@@ -31670,10 +31228,10 @@
         <v>2</v>
       </c>
       <c r="D81" s="40" t="n">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="E81" s="40" t="n">
-        <v>32.01803833145434</v>
+        <v>35.51296505073281</v>
       </c>
       <c r="F81" s="37" t="n"/>
     </row>
@@ -31690,10 +31248,10 @@
         <v>0</v>
       </c>
       <c r="D82" s="38" t="n">
-        <v>2018</v>
+        <v>2063</v>
       </c>
       <c r="E82" s="39" t="n">
-        <v>32.63260025873221</v>
+        <v>33.36028460543338</v>
       </c>
       <c r="F82" s="37" t="n"/>
     </row>
@@ -31710,10 +31268,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="38" t="n">
-        <v>2102</v>
+        <v>2107</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>33.99094437257438</v>
+        <v>34.07179818887451</v>
       </c>
       <c r="F83" s="37" t="n"/>
     </row>
@@ -31730,10 +31288,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="38" t="n">
-        <v>2064</v>
+        <v>2014</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>33.3764553686934</v>
+        <v>32.56791720569211</v>
       </c>
       <c r="F84" s="37" t="n"/>
     </row>
@@ -31750,10 +31308,10 @@
         <v>0</v>
       </c>
       <c r="D85" s="38" t="n">
-        <v>1318</v>
+        <v>1270</v>
       </c>
       <c r="E85" s="39" t="n">
-        <v>34.53878406708596</v>
+        <v>33.28092243186583</v>
       </c>
       <c r="F85" s="37" t="n"/>
     </row>
@@ -31770,10 +31328,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="38" t="n">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>32.18029350104822</v>
+        <v>32.25890985324947</v>
       </c>
       <c r="F86" s="37" t="n"/>
     </row>
@@ -31790,10 +31348,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="40" t="n">
-        <v>1270</v>
+        <v>1315</v>
       </c>
       <c r="E87" s="40" t="n">
-        <v>33.28092243186583</v>
+        <v>34.4601677148847</v>
       </c>
       <c r="F87" s="37" t="n"/>
     </row>
@@ -31810,10 +31368,10 @@
         <v>0</v>
       </c>
       <c r="D88" s="38" t="n">
-        <v>2810</v>
+        <v>2820</v>
       </c>
       <c r="E88" s="39" t="n">
-        <v>33.21513002364066</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F88" s="37" t="n"/>
     </row>
@@ -31830,10 +31388,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="38" t="n">
-        <v>2832</v>
+        <v>2837</v>
       </c>
       <c r="E89" s="39" t="n">
-        <v>33.47517730496454</v>
+        <v>33.53427895981088</v>
       </c>
       <c r="F89" s="37" t="n"/>
     </row>
@@ -31850,10 +31408,10 @@
         <v>2</v>
       </c>
       <c r="D90" s="38" t="n">
-        <v>2818</v>
+        <v>2803</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>33.3096926713948</v>
+        <v>33.13238770685579</v>
       </c>
       <c r="F90" s="37" t="n"/>
     </row>
@@ -31870,10 +31428,10 @@
         <v>0</v>
       </c>
       <c r="D91" s="38" t="n">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="E91" s="39" t="n">
-        <v>34.15584415584416</v>
+        <v>33.31168831168831</v>
       </c>
       <c r="F91" s="37" t="n"/>
     </row>
@@ -31890,10 +31448,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="38" t="n">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>32.33766233766234</v>
+        <v>32.53246753246754</v>
       </c>
       <c r="F92" s="37" t="n"/>
     </row>
@@ -31910,10 +31468,10 @@
         <v>2</v>
       </c>
       <c r="D93" s="40" t="n">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="E93" s="40" t="n">
-        <v>33.50649350649351</v>
+        <v>34.15584415584416</v>
       </c>
       <c r="F93" s="37" t="n"/>
     </row>
@@ -31932,10 +31490,10 @@
         <v>0</v>
       </c>
       <c r="D94" s="38" t="n">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="E94" s="39" t="n">
-        <v>33.59093250901597</v>
+        <v>33.2818134981968</v>
       </c>
       <c r="F94" s="37" t="n"/>
     </row>
@@ -31954,10 +31512,10 @@
         <v>1</v>
       </c>
       <c r="D95" s="38" t="n">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="E95" s="39" t="n">
-        <v>33.10149407521896</v>
+        <v>33.20453374549201</v>
       </c>
       <c r="F95" s="37" t="n"/>
     </row>
@@ -31976,10 +31534,10 @@
         <v>2</v>
       </c>
       <c r="D96" s="38" t="n">
-        <v>1293</v>
+        <v>1301</v>
       </c>
       <c r="E96" s="39" t="n">
-        <v>33.30757341576507</v>
+        <v>33.51365275631118</v>
       </c>
       <c r="F96" s="37" t="n"/>
     </row>
@@ -31998,10 +31556,10 @@
         <v>0</v>
       </c>
       <c r="D97" s="38" t="n">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E97" s="39" t="n">
-        <v>32.79613215149073</v>
+        <v>32.59468170829976</v>
       </c>
       <c r="F97" s="37" t="n"/>
     </row>
@@ -32020,10 +31578,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="38" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E98" s="39" t="n">
-        <v>34.6494762288477</v>
+        <v>34.6897663174859</v>
       </c>
       <c r="F98" s="37" t="n"/>
     </row>
@@ -32042,10 +31600,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="38" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="E99" s="39" t="n">
-        <v>32.55439161966157</v>
+        <v>32.71555197421434</v>
       </c>
       <c r="F99" s="37" t="n"/>
     </row>
@@ -32064,10 +31622,10 @@
         <v>0</v>
       </c>
       <c r="D100" s="38" t="n">
-        <v>1164</v>
+        <v>1178</v>
       </c>
       <c r="E100" s="39" t="n">
-        <v>33.51569248488339</v>
+        <v>33.91880218830982</v>
       </c>
       <c r="F100" s="37" t="n"/>
     </row>
@@ -32086,10 +31644,10 @@
         <v>1</v>
       </c>
       <c r="D101" s="38" t="n">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="E101" s="39" t="n">
-        <v>32.53671177656205</v>
+        <v>32.62309242729629</v>
       </c>
       <c r="F101" s="37" t="n"/>
     </row>
@@ -32108,10 +31666,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="40" t="n">
-        <v>1179</v>
+        <v>1162</v>
       </c>
       <c r="E102" s="40" t="n">
-        <v>33.94759573855456</v>
+        <v>33.4581053843939</v>
       </c>
       <c r="F102" s="37" t="n"/>
     </row>
@@ -32196,10 +31754,10 @@
         <v>0</v>
       </c>
       <c r="D106" s="38" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E106" s="39" t="n">
-        <v>35.44303797468354</v>
+        <v>32.91139240506329</v>
       </c>
       <c r="F106" s="37" t="n"/>
     </row>
@@ -32240,10 +31798,10 @@
         <v>2</v>
       </c>
       <c r="D108" s="38" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E108" s="39" t="n">
-        <v>32.91139240506329</v>
+        <v>35.44303797468354</v>
       </c>
       <c r="F108" s="37" t="n"/>
     </row>
@@ -32325,7 +31883,7 @@
         </is>
       </c>
       <c r="C112" s="38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" s="38" t="n">
         <v>3</v>
@@ -32347,7 +31905,7 @@
         </is>
       </c>
       <c r="C113" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" s="38" t="n">
         <v>3</v>
@@ -32372,10 +31930,10 @@
         <v>0</v>
       </c>
       <c r="D114" s="38" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E114" s="39" t="n">
-        <v>61.90476190476191</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="F114" s="37" t="n"/>
     </row>
@@ -32416,10 +31974,10 @@
         <v>2</v>
       </c>
       <c r="D116" s="38" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E116" s="39" t="n">
-        <v>19.04761904761905</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="F116" s="37" t="n"/>
     </row>
@@ -32438,10 +31996,10 @@
         <v>0</v>
       </c>
       <c r="D117" s="38" t="n">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E117" s="39" t="n">
-        <v>29.82456140350877</v>
+        <v>35.43859649122807</v>
       </c>
       <c r="F117" s="37" t="n"/>
     </row>
@@ -32460,10 +32018,10 @@
         <v>1</v>
       </c>
       <c r="D118" s="38" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E118" s="39" t="n">
-        <v>34.38596491228071</v>
+        <v>34.73684210526316</v>
       </c>
       <c r="F118" s="37" t="n"/>
     </row>
@@ -32482,10 +32040,10 @@
         <v>2</v>
       </c>
       <c r="D119" s="38" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E119" s="39" t="n">
-        <v>35.78947368421053</v>
+        <v>29.82456140350877</v>
       </c>
       <c r="F119" s="37" t="n"/>
     </row>
@@ -32504,10 +32062,10 @@
         <v>0</v>
       </c>
       <c r="D120" s="38" t="n">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="E120" s="39" t="n">
-        <v>36.80555555555556</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="F120" s="37" t="n"/>
     </row>
@@ -32548,10 +32106,10 @@
         <v>2</v>
       </c>
       <c r="D122" s="38" t="n">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="E122" s="39" t="n">
-        <v>29.16666666666667</v>
+        <v>36.80555555555556</v>
       </c>
       <c r="F122" s="37" t="n"/>
     </row>
@@ -32570,10 +32128,10 @@
         <v>0</v>
       </c>
       <c r="D123" s="38" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E123" s="39" t="n">
-        <v>36.88524590163934</v>
+        <v>35.24590163934426</v>
       </c>
       <c r="F123" s="37" t="n"/>
     </row>
@@ -32614,10 +32172,10 @@
         <v>2</v>
       </c>
       <c r="D125" s="38" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E125" s="39" t="n">
-        <v>35.24590163934426</v>
+        <v>36.88524590163934</v>
       </c>
       <c r="F125" s="37" t="n"/>
     </row>
@@ -32636,10 +32194,10 @@
         <v>0</v>
       </c>
       <c r="D126" s="38" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E126" s="39" t="n">
-        <v>30.20833333333333</v>
+        <v>35.9375</v>
       </c>
       <c r="F126" s="37" t="n"/>
     </row>
@@ -32680,10 +32238,10 @@
         <v>2</v>
       </c>
       <c r="D128" s="38" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E128" s="39" t="n">
-        <v>35.9375</v>
+        <v>30.20833333333333</v>
       </c>
       <c r="F128" s="37" t="n"/>
     </row>
@@ -32702,10 +32260,10 @@
         <v>0</v>
       </c>
       <c r="D129" s="38" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E129" s="39" t="n">
-        <v>41.17647058823529</v>
+        <v>32.35294117647059</v>
       </c>
       <c r="F129" s="37" t="n"/>
     </row>
@@ -32724,10 +32282,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E130" s="39" t="n">
-        <v>23.52941176470588</v>
+        <v>26.47058823529412</v>
       </c>
       <c r="F130" s="37" t="n"/>
     </row>
@@ -32746,10 +32304,10 @@
         <v>2</v>
       </c>
       <c r="D131" s="38" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E131" s="39" t="n">
-        <v>35.29411764705883</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="F131" s="37" t="n"/>
     </row>
@@ -32768,10 +32326,10 @@
         <v>0</v>
       </c>
       <c r="D132" s="38" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E132" s="39" t="n">
-        <v>35.06493506493506</v>
+        <v>29.87012987012987</v>
       </c>
       <c r="F132" s="37" t="n"/>
     </row>
@@ -32812,10 +32370,10 @@
         <v>2</v>
       </c>
       <c r="D134" s="38" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E134" s="39" t="n">
-        <v>29.87012987012987</v>
+        <v>35.06493506493506</v>
       </c>
       <c r="F134" s="37" t="n"/>
     </row>
@@ -32834,10 +32392,10 @@
         <v>0</v>
       </c>
       <c r="D135" s="38" t="n">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E135" s="39" t="n">
-        <v>32.66331658291458</v>
+        <v>31.85929648241206</v>
       </c>
       <c r="F135" s="37" t="n"/>
     </row>
@@ -32878,10 +32436,10 @@
         <v>2</v>
       </c>
       <c r="D137" s="38" t="n">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E137" s="39" t="n">
-        <v>31.75879396984925</v>
+        <v>32.56281407035176</v>
       </c>
       <c r="F137" s="37" t="n"/>
     </row>
@@ -32900,10 +32458,10 @@
         <v>0</v>
       </c>
       <c r="D138" s="38" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E138" s="39" t="n">
-        <v>33.97260273972603</v>
+        <v>35.89041095890411</v>
       </c>
       <c r="F138" s="37" t="n"/>
     </row>
@@ -32922,10 +32480,10 @@
         <v>1</v>
       </c>
       <c r="D139" s="38" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E139" s="39" t="n">
-        <v>29.86301369863014</v>
+        <v>30.13698630136986</v>
       </c>
       <c r="F139" s="37" t="n"/>
     </row>
@@ -32944,10 +32502,10 @@
         <v>2</v>
       </c>
       <c r="D140" s="38" t="n">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E140" s="39" t="n">
-        <v>36.16438356164384</v>
+        <v>33.97260273972603</v>
       </c>
       <c r="F140" s="37" t="n"/>
     </row>
@@ -32966,10 +32524,10 @@
         <v>0</v>
       </c>
       <c r="D141" s="38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E141" s="39" t="n">
-        <v>35.71428571428572</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="F141" s="37" t="n"/>
     </row>
@@ -33010,10 +32568,10 @@
         <v>2</v>
       </c>
       <c r="D143" s="38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E143" s="39" t="n">
-        <v>21.42857142857143</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="F143" s="37" t="n"/>
     </row>
@@ -33098,10 +32656,10 @@
         <v>0</v>
       </c>
       <c r="D147" s="38" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E147" s="39" t="n">
-        <v>40.42553191489361</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="F147" s="37" t="n"/>
     </row>
@@ -33142,10 +32700,10 @@
         <v>2</v>
       </c>
       <c r="D149" s="38" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E149" s="39" t="n">
-        <v>31.91489361702128</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="F149" s="37" t="n"/>
     </row>
@@ -33164,10 +32722,10 @@
         <v>0</v>
       </c>
       <c r="D150" s="38" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E150" s="39" t="n">
-        <v>34.28571428571428</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F150" s="37" t="n"/>
     </row>
@@ -33208,10 +32766,10 @@
         <v>2</v>
       </c>
       <c r="D152" s="38" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E152" s="39" t="n">
-        <v>28.57142857142857</v>
+        <v>34.28571428571428</v>
       </c>
       <c r="F152" s="37" t="n"/>
     </row>
@@ -33230,10 +32788,10 @@
         <v>0</v>
       </c>
       <c r="D153" s="38" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E153" s="39" t="n">
-        <v>33.71104815864022</v>
+        <v>32.01133144475921</v>
       </c>
       <c r="F153" s="37" t="n"/>
     </row>
@@ -33252,10 +32810,10 @@
         <v>1</v>
       </c>
       <c r="D154" s="38" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E154" s="39" t="n">
-        <v>33.9943342776204</v>
+        <v>34.27762039660057</v>
       </c>
       <c r="F154" s="37" t="n"/>
     </row>
@@ -33274,10 +32832,10 @@
         <v>2</v>
       </c>
       <c r="D155" s="38" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E155" s="39" t="n">
-        <v>32.29461756373937</v>
+        <v>33.71104815864022</v>
       </c>
       <c r="F155" s="37" t="n"/>
     </row>
@@ -33296,10 +32854,10 @@
         <v>0</v>
       </c>
       <c r="D156" s="38" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E156" s="39" t="n">
-        <v>26.50602409638554</v>
+        <v>38.55421686746988</v>
       </c>
       <c r="F156" s="37" t="n"/>
     </row>
@@ -33340,10 +32898,10 @@
         <v>2</v>
       </c>
       <c r="D158" s="38" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E158" s="39" t="n">
-        <v>38.55421686746988</v>
+        <v>26.50602409638554</v>
       </c>
       <c r="F158" s="37" t="n"/>
     </row>
@@ -33428,10 +32986,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="38" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E162" s="39" t="n">
-        <v>36.36363636363637</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="F162" s="37" t="n"/>
     </row>
@@ -33472,10 +33030,10 @@
         <v>2</v>
       </c>
       <c r="D164" s="38" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E164" s="39" t="n">
-        <v>31.81818181818182</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="F164" s="37" t="n"/>
     </row>
@@ -33494,10 +33052,10 @@
         <v>0</v>
       </c>
       <c r="D165" s="38" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E165" s="39" t="n">
-        <v>35.71428571428572</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="F165" s="37" t="n"/>
     </row>
@@ -33538,10 +33096,10 @@
         <v>2</v>
       </c>
       <c r="D167" s="38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E167" s="39" t="n">
-        <v>32.14285714285715</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="F167" s="37" t="n"/>
     </row>
@@ -33560,10 +33118,10 @@
         <v>0</v>
       </c>
       <c r="D168" s="38" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E168" s="39" t="n">
-        <v>31.37254901960784</v>
+        <v>38.23529411764706</v>
       </c>
       <c r="F168" s="37" t="n"/>
     </row>
@@ -33604,10 +33162,10 @@
         <v>2</v>
       </c>
       <c r="D170" s="38" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E170" s="39" t="n">
-        <v>38.23529411764706</v>
+        <v>31.37254901960784</v>
       </c>
       <c r="F170" s="37" t="n"/>
     </row>
@@ -33626,10 +33184,10 @@
         <v>0</v>
       </c>
       <c r="D171" s="38" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E171" s="39" t="n">
-        <v>32.99492385786802</v>
+        <v>34.01015228426396</v>
       </c>
       <c r="F171" s="37" t="n"/>
     </row>
@@ -33648,10 +33206,10 @@
         <v>1</v>
       </c>
       <c r="D172" s="38" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E172" s="39" t="n">
-        <v>32.48730964467005</v>
+        <v>32.99492385786802</v>
       </c>
       <c r="F172" s="37" t="n"/>
     </row>
@@ -33670,10 +33228,10 @@
         <v>2</v>
       </c>
       <c r="D173" s="38" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E173" s="39" t="n">
-        <v>34.51776649746193</v>
+        <v>32.99492385786802</v>
       </c>
       <c r="F173" s="37" t="n"/>
     </row>
@@ -33692,10 +33250,10 @@
         <v>0</v>
       </c>
       <c r="D174" s="38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E174" s="39" t="n">
-        <v>39.58333333333333</v>
+        <v>35.41666666666667</v>
       </c>
       <c r="F174" s="37" t="n"/>
     </row>
@@ -33736,10 +33294,10 @@
         <v>2</v>
       </c>
       <c r="D176" s="38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E176" s="39" t="n">
-        <v>35.41666666666667</v>
+        <v>39.58333333333333</v>
       </c>
       <c r="F176" s="37" t="n"/>
     </row>
@@ -33758,10 +33316,10 @@
         <v>0</v>
       </c>
       <c r="D177" s="38" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E177" s="39" t="n">
-        <v>32.45614035087719</v>
+        <v>30.70175438596491</v>
       </c>
       <c r="F177" s="37" t="n"/>
     </row>
@@ -33802,10 +33360,10 @@
         <v>2</v>
       </c>
       <c r="D179" s="38" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E179" s="39" t="n">
-        <v>30.70175438596491</v>
+        <v>32.45614035087719</v>
       </c>
       <c r="F179" s="37" t="n"/>
     </row>
@@ -33824,10 +33382,10 @@
         <v>0</v>
       </c>
       <c r="D180" s="38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E180" s="39" t="n">
-        <v>31.70731707317073</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="F180" s="37" t="n"/>
     </row>
@@ -33868,10 +33426,10 @@
         <v>2</v>
       </c>
       <c r="D182" s="38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E182" s="39" t="n">
-        <v>36.58536585365854</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="F182" s="37" t="n"/>
     </row>
@@ -33890,10 +33448,10 @@
         <v>0</v>
       </c>
       <c r="D183" s="38" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E183" s="39" t="n">
-        <v>34.14634146341464</v>
+        <v>32.92682926829269</v>
       </c>
       <c r="F183" s="37" t="n"/>
     </row>
@@ -33934,10 +33492,10 @@
         <v>2</v>
       </c>
       <c r="D185" s="38" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E185" s="39" t="n">
-        <v>32.92682926829269</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="F185" s="37" t="n"/>
     </row>
@@ -33956,10 +33514,10 @@
         <v>0</v>
       </c>
       <c r="D186" s="38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186" s="39" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F186" s="37" t="n"/>
     </row>
@@ -34000,10 +33558,10 @@
         <v>2</v>
       </c>
       <c r="D188" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188" s="39" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F188" s="37" t="n"/>
     </row>
@@ -34022,10 +33580,10 @@
         <v>0</v>
       </c>
       <c r="D189" s="38" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E189" s="39" t="n">
-        <v>34.61538461538461</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="F189" s="37" t="n"/>
     </row>
@@ -34066,10 +33624,10 @@
         <v>2</v>
       </c>
       <c r="D191" s="38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E191" s="39" t="n">
-        <v>26.92307692307692</v>
+        <v>34.61538461538461</v>
       </c>
       <c r="F191" s="37" t="n"/>
     </row>
@@ -34088,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="D192" s="38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E192" s="39" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F192" s="37" t="n"/>
     </row>
@@ -34132,10 +33690,10 @@
         <v>2</v>
       </c>
       <c r="D194" s="38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E194" s="39" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F194" s="37" t="n"/>
     </row>
@@ -34154,10 +33712,10 @@
         <v>0</v>
       </c>
       <c r="D195" s="38" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E195" s="39" t="n">
-        <v>34.04255319148936</v>
+        <v>31.06382978723404</v>
       </c>
       <c r="F195" s="37" t="n"/>
     </row>
@@ -34198,10 +33756,10 @@
         <v>2</v>
       </c>
       <c r="D197" s="38" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E197" s="39" t="n">
-        <v>31.06382978723404</v>
+        <v>34.04255319148936</v>
       </c>
       <c r="F197" s="37" t="n"/>
     </row>
@@ -34374,10 +33932,10 @@
         <v>0</v>
       </c>
       <c r="D205" s="38" t="n">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="E205" s="39" t="n">
-        <v>30.47091412742382</v>
+        <v>36.42659279778393</v>
       </c>
       <c r="F205" s="37" t="n"/>
     </row>
@@ -34418,10 +33976,10 @@
         <v>2</v>
       </c>
       <c r="D207" s="38" t="n">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="E207" s="39" t="n">
-        <v>36.28808864265928</v>
+        <v>30.33240997229917</v>
       </c>
       <c r="F207" s="37" t="n"/>
     </row>
@@ -34440,10 +33998,10 @@
         <v>0</v>
       </c>
       <c r="D208" s="38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E208" s="39" t="n">
-        <v>27.27272727272727</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="F208" s="37" t="n"/>
     </row>
@@ -34484,10 +34042,10 @@
         <v>2</v>
       </c>
       <c r="D210" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E210" s="39" t="n">
-        <v>36.36363636363637</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="F210" s="37" t="n"/>
     </row>
@@ -34506,10 +34064,10 @@
         <v>0</v>
       </c>
       <c r="D211" s="38" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E211" s="39" t="n">
-        <v>23.37662337662337</v>
+        <v>46.75324675324675</v>
       </c>
       <c r="F211" s="37" t="n"/>
     </row>
@@ -34550,10 +34108,10 @@
         <v>2</v>
       </c>
       <c r="D213" s="38" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E213" s="39" t="n">
-        <v>46.75324675324675</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="F213" s="37" t="n"/>
     </row>
@@ -34572,10 +34130,10 @@
         <v>0</v>
       </c>
       <c r="D214" s="38" t="n">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E214" s="39" t="n">
-        <v>33.43108504398827</v>
+        <v>35.19061583577713</v>
       </c>
       <c r="F214" s="37" t="n"/>
     </row>
@@ -34616,10 +34174,10 @@
         <v>2</v>
       </c>
       <c r="D216" s="38" t="n">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E216" s="39" t="n">
-        <v>35.04398826979472</v>
+        <v>33.28445747800586</v>
       </c>
       <c r="F216" s="37" t="n"/>
     </row>
@@ -34638,10 +34196,10 @@
         <v>0</v>
       </c>
       <c r="D217" s="38" t="n">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E217" s="39" t="n">
-        <v>31.86147186147186</v>
+        <v>32.9004329004329</v>
       </c>
       <c r="F217" s="37" t="n"/>
     </row>
@@ -34660,10 +34218,10 @@
         <v>1</v>
       </c>
       <c r="D218" s="38" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E218" s="39" t="n">
-        <v>35.15151515151515</v>
+        <v>35.23809523809524</v>
       </c>
       <c r="F218" s="37" t="n"/>
     </row>
@@ -34682,10 +34240,10 @@
         <v>2</v>
       </c>
       <c r="D219" s="38" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E219" s="39" t="n">
-        <v>32.98701298701299</v>
+        <v>31.86147186147186</v>
       </c>
       <c r="F219" s="37" t="n"/>
     </row>
@@ -34704,10 +34262,10 @@
         <v>0</v>
       </c>
       <c r="D220" s="38" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E220" s="39" t="n">
-        <v>44.26229508196721</v>
+        <v>21.31147540983606</v>
       </c>
       <c r="F220" s="37" t="n"/>
     </row>
@@ -34748,10 +34306,10 @@
         <v>2</v>
       </c>
       <c r="D222" s="38" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E222" s="39" t="n">
-        <v>21.31147540983606</v>
+        <v>44.26229508196721</v>
       </c>
       <c r="F222" s="37" t="n"/>
     </row>
@@ -34836,10 +34394,10 @@
         <v>0</v>
       </c>
       <c r="D226" s="38" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E226" s="39" t="n">
-        <v>34.62566844919786</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="F226" s="37" t="n"/>
     </row>
@@ -34858,10 +34416,10 @@
         <v>1</v>
       </c>
       <c r="D227" s="38" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E227" s="39" t="n">
-        <v>30.08021390374331</v>
+        <v>30.21390374331551</v>
       </c>
       <c r="F227" s="37" t="n"/>
     </row>
@@ -34880,10 +34438,10 @@
         <v>2</v>
       </c>
       <c r="D228" s="38" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E228" s="39" t="n">
-        <v>35.29411764705883</v>
+        <v>34.49197860962567</v>
       </c>
       <c r="F228" s="37" t="n"/>
     </row>
@@ -34902,10 +34460,10 @@
         <v>0</v>
       </c>
       <c r="D229" s="38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E229" s="39" t="n">
-        <v>14.28571428571428</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="F229" s="37" t="n"/>
     </row>
@@ -34946,10 +34504,10 @@
         <v>2</v>
       </c>
       <c r="D231" s="38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E231" s="39" t="n">
-        <v>57.14285714285714</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="F231" s="37" t="n"/>
     </row>
@@ -34968,10 +34526,10 @@
         <v>0</v>
       </c>
       <c r="D232" s="38" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E232" s="39" t="n">
-        <v>25.37313432835821</v>
+        <v>40.29850746268657</v>
       </c>
       <c r="F232" s="37" t="n"/>
     </row>
@@ -35012,10 +34570,10 @@
         <v>2</v>
       </c>
       <c r="D234" s="38" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E234" s="39" t="n">
-        <v>40.29850746268657</v>
+        <v>25.37313432835821</v>
       </c>
       <c r="F234" s="37" t="n"/>
     </row>
@@ -35031,13 +34589,13 @@
         </is>
       </c>
       <c r="C235" s="38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E235" s="39" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="F235" s="37" t="n"/>
     </row>
@@ -35053,13 +34611,13 @@
         </is>
       </c>
       <c r="C236" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D236" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="D236" s="38" t="n">
-        <v>2</v>
-      </c>
       <c r="E236" s="39" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F236" s="37" t="n"/>
     </row>
@@ -35078,10 +34636,10 @@
         <v>0</v>
       </c>
       <c r="D237" s="38" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E237" s="39" t="n">
-        <v>38.67924528301887</v>
+        <v>27.35849056603773</v>
       </c>
       <c r="F237" s="37" t="n"/>
     </row>
@@ -35122,10 +34680,10 @@
         <v>2</v>
       </c>
       <c r="D239" s="38" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E239" s="39" t="n">
-        <v>27.35849056603773</v>
+        <v>38.67924528301887</v>
       </c>
       <c r="F239" s="37" t="n"/>
     </row>
@@ -35144,10 +34702,10 @@
         <v>0</v>
       </c>
       <c r="D240" s="38" t="n">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="E240" s="39" t="n">
-        <v>35.04672897196262</v>
+        <v>29.55607476635514</v>
       </c>
       <c r="F240" s="37" t="n"/>
     </row>
@@ -35166,10 +34724,10 @@
         <v>1</v>
       </c>
       <c r="D241" s="38" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E241" s="39" t="n">
-        <v>35.39719626168225</v>
+        <v>35.51401869158878</v>
       </c>
       <c r="F241" s="37" t="n"/>
     </row>
@@ -35188,10 +34746,10 @@
         <v>2</v>
       </c>
       <c r="D242" s="38" t="n">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="E242" s="39" t="n">
-        <v>29.55607476635514</v>
+        <v>34.92990654205607</v>
       </c>
       <c r="F242" s="37" t="n"/>
     </row>
@@ -35210,10 +34768,10 @@
         <v>0</v>
       </c>
       <c r="D243" s="38" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E243" s="39" t="n">
-        <v>36.84210526315789</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="F243" s="37" t="n"/>
     </row>
@@ -35254,10 +34812,10 @@
         <v>2</v>
       </c>
       <c r="D245" s="38" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E245" s="39" t="n">
-        <v>23.68421052631579</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="F245" s="37" t="n"/>
     </row>
@@ -35276,10 +34834,10 @@
         <v>0</v>
       </c>
       <c r="D246" s="38" t="n">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E246" s="39" t="n">
-        <v>29.85074626865671</v>
+        <v>35.22388059701493</v>
       </c>
       <c r="F246" s="37" t="n"/>
     </row>
@@ -35320,10 +34878,10 @@
         <v>2</v>
       </c>
       <c r="D248" s="38" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E248" s="39" t="n">
-        <v>34.6268656716418</v>
+        <v>29.25373134328358</v>
       </c>
       <c r="F248" s="37" t="n"/>
     </row>
@@ -35339,7 +34897,7 @@
         </is>
       </c>
       <c r="C249" s="38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D249" s="38" t="n">
         <v>1</v>
@@ -35364,10 +34922,10 @@
         <v>0</v>
       </c>
       <c r="D250" s="38" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E250" s="39" t="n">
-        <v>34.76190476190476</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="F250" s="37" t="n"/>
     </row>
@@ -35408,10 +34966,10 @@
         <v>2</v>
       </c>
       <c r="D252" s="38" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E252" s="39" t="n">
-        <v>35.71428571428572</v>
+        <v>34.76190476190476</v>
       </c>
       <c r="F252" s="37" t="n"/>
     </row>
@@ -35430,10 +34988,10 @@
         <v>0</v>
       </c>
       <c r="D253" s="38" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E253" s="39" t="n">
-        <v>48.27586206896552</v>
+        <v>25.86206896551724</v>
       </c>
       <c r="F253" s="37" t="n"/>
     </row>
@@ -35474,10 +35032,10 @@
         <v>2</v>
       </c>
       <c r="D255" s="38" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E255" s="39" t="n">
-        <v>25.86206896551724</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="F255" s="37" t="n"/>
     </row>
@@ -35496,10 +35054,10 @@
         <v>0</v>
       </c>
       <c r="D256" s="38" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E256" s="39" t="n">
-        <v>21.73913043478261</v>
+        <v>50</v>
       </c>
       <c r="F256" s="37" t="n"/>
     </row>
@@ -35540,10 +35098,10 @@
         <v>2</v>
       </c>
       <c r="D258" s="38" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E258" s="39" t="n">
-        <v>50</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="F258" s="37" t="n"/>
     </row>
@@ -35628,10 +35186,10 @@
         <v>0</v>
       </c>
       <c r="D262" s="38" t="n">
-        <v>2417</v>
+        <v>2363</v>
       </c>
       <c r="E262" s="39" t="n">
-        <v>33.7994686057894</v>
+        <v>33.04432946441057</v>
       </c>
       <c r="F262" s="37" t="n"/>
     </row>
@@ -35650,10 +35208,10 @@
         <v>1</v>
       </c>
       <c r="D263" s="38" t="n">
-        <v>2370</v>
+        <v>2376</v>
       </c>
       <c r="E263" s="39" t="n">
-        <v>33.14221787162634</v>
+        <v>33.22612222066844</v>
       </c>
       <c r="F263" s="37" t="n"/>
     </row>
@@ -35672,10 +35230,10 @@
         <v>2</v>
       </c>
       <c r="D264" s="38" t="n">
-        <v>2364</v>
+        <v>2412</v>
       </c>
       <c r="E264" s="39" t="n">
-        <v>33.05831352258426</v>
+        <v>33.72954831492099</v>
       </c>
       <c r="F264" s="37" t="n"/>
     </row>
@@ -35694,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="D265" s="38" t="n">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="E265" s="39" t="n">
-        <v>32.43006993006993</v>
+        <v>34.00349650349651</v>
       </c>
       <c r="F265" s="37" t="n"/>
     </row>
@@ -35716,10 +35274,10 @@
         <v>1</v>
       </c>
       <c r="D266" s="38" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E266" s="39" t="n">
-        <v>33.47902097902098</v>
+        <v>33.65384615384615</v>
       </c>
       <c r="F266" s="37" t="n"/>
     </row>
@@ -35738,10 +35296,10 @@
         <v>2</v>
       </c>
       <c r="D267" s="40" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="E267" s="40" t="n">
-        <v>34.09090909090909</v>
+        <v>32.34265734265735</v>
       </c>
       <c r="F267" s="37" t="n"/>
     </row>
@@ -35760,10 +35318,10 @@
         <v>0</v>
       </c>
       <c r="D268" s="38" t="n">
-        <v>531</v>
+        <v>576</v>
       </c>
       <c r="E268" s="39" t="n">
-        <v>31.38297872340425</v>
+        <v>34.04255319148936</v>
       </c>
       <c r="F268" s="37" t="n"/>
     </row>
@@ -35782,10 +35340,10 @@
         <v>1</v>
       </c>
       <c r="D269" s="38" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E269" s="39" t="n">
-        <v>34.51536643026004</v>
+        <v>34.69267139479905</v>
       </c>
       <c r="F269" s="37" t="n"/>
     </row>
@@ -35804,10 +35362,10 @@
         <v>2</v>
       </c>
       <c r="D270" s="38" t="n">
-        <v>577</v>
+        <v>529</v>
       </c>
       <c r="E270" s="39" t="n">
-        <v>34.1016548463357</v>
+        <v>31.26477541371158</v>
       </c>
       <c r="F270" s="37" t="n"/>
     </row>
@@ -35826,10 +35384,10 @@
         <v>0</v>
       </c>
       <c r="D271" s="38" t="n">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="E271" s="39" t="n">
-        <v>33.89216130493883</v>
+        <v>34.25464431354781</v>
       </c>
       <c r="F271" s="37" t="n"/>
     </row>
@@ -35848,10 +35406,10 @@
         <v>1</v>
       </c>
       <c r="D272" s="38" t="n">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E272" s="39" t="n">
-        <v>31.85319438151337</v>
+        <v>31.94381513366561</v>
       </c>
       <c r="F272" s="37" t="n"/>
     </row>
@@ -35870,10 +35428,10 @@
         <v>2</v>
       </c>
       <c r="D273" s="38" t="n">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="E273" s="39" t="n">
-        <v>34.25464431354781</v>
+        <v>33.80154055278659</v>
       </c>
       <c r="F273" s="37" t="n"/>
     </row>
@@ -35892,10 +35450,10 @@
         <v>0</v>
       </c>
       <c r="D274" s="38" t="n">
-        <v>1509</v>
+        <v>1420</v>
       </c>
       <c r="E274" s="39" t="n">
-        <v>34.32666060054595</v>
+        <v>32.30209281164696</v>
       </c>
       <c r="F274" s="37" t="n"/>
     </row>
@@ -35914,10 +35472,10 @@
         <v>1</v>
       </c>
       <c r="D275" s="38" t="n">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="E275" s="39" t="n">
-        <v>33.34849863512284</v>
+        <v>33.41674249317562</v>
       </c>
       <c r="F275" s="37" t="n"/>
     </row>
@@ -35936,10 +35494,10 @@
         <v>2</v>
       </c>
       <c r="D276" s="40" t="n">
-        <v>1421</v>
+        <v>1507</v>
       </c>
       <c r="E276" s="40" t="n">
-        <v>32.32484076433121</v>
+        <v>34.28116469517744</v>
       </c>
       <c r="F276" s="37" t="n"/>
     </row>
@@ -35956,10 +35514,10 @@
         <v>0</v>
       </c>
       <c r="D277" s="38" t="n">
-        <v>2625</v>
+        <v>2587</v>
       </c>
       <c r="E277" s="39" t="n">
-        <v>33.64953211126779</v>
+        <v>33.16241507499038</v>
       </c>
       <c r="F277" s="37" t="n"/>
     </row>
@@ -35976,10 +35534,10 @@
         <v>1</v>
       </c>
       <c r="D278" s="38" t="n">
-        <v>2586</v>
+        <v>2594</v>
       </c>
       <c r="E278" s="39" t="n">
-        <v>33.14959620561466</v>
+        <v>33.25214716062043</v>
       </c>
       <c r="F278" s="37" t="n"/>
     </row>
@@ -35996,10 +35554,10 @@
         <v>2</v>
       </c>
       <c r="D279" s="38" t="n">
-        <v>2590</v>
+        <v>2620</v>
       </c>
       <c r="E279" s="39" t="n">
-        <v>33.20087168311755</v>
+        <v>33.58543776438918</v>
       </c>
       <c r="F279" s="37" t="n"/>
     </row>
@@ -36016,10 +35574,10 @@
         <v>0</v>
       </c>
       <c r="D280" s="38" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E280" s="39" t="n">
-        <v>32.99595141700405</v>
+        <v>33.40080971659919</v>
       </c>
       <c r="F280" s="37" t="n"/>
     </row>
@@ -36056,10 +35614,10 @@
         <v>2</v>
       </c>
       <c r="D282" s="40" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E282" s="40" t="n">
-        <v>33.19838056680162</v>
+        <v>32.79352226720648</v>
       </c>
       <c r="F282" s="37" t="n"/>
     </row>
@@ -36076,10 +35634,10 @@
         <v>0</v>
       </c>
       <c r="D283" s="38" t="n">
-        <v>2096</v>
+        <v>2043</v>
       </c>
       <c r="E283" s="39" t="n">
-        <v>33.86653740507352</v>
+        <v>33.0101793504605</v>
       </c>
       <c r="F283" s="37" t="n"/>
     </row>
@@ -36096,10 +35654,10 @@
         <v>1</v>
       </c>
       <c r="D284" s="38" t="n">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="E284" s="39" t="n">
-        <v>33.12328324446599</v>
+        <v>33.17175634189692</v>
       </c>
       <c r="F284" s="37" t="n"/>
     </row>
@@ -36116,10 +35674,10 @@
         <v>2</v>
       </c>
       <c r="D285" s="38" t="n">
-        <v>2043</v>
+        <v>2093</v>
       </c>
       <c r="E285" s="39" t="n">
-        <v>33.0101793504605</v>
+        <v>33.81806430764259</v>
       </c>
       <c r="F285" s="37" t="n"/>
     </row>
@@ -36136,10 +35694,10 @@
         <v>0</v>
       </c>
       <c r="D286" s="38" t="n">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="E286" s="39" t="n">
-        <v>32.85849952516619</v>
+        <v>33.66571699905033</v>
       </c>
       <c r="F286" s="37" t="n"/>
     </row>
@@ -36156,10 +35714,10 @@
         <v>1</v>
       </c>
       <c r="D287" s="38" t="n">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="E287" s="39" t="n">
-        <v>33.38081671415004</v>
+        <v>33.61823361823362</v>
       </c>
       <c r="F287" s="37" t="n"/>
     </row>
@@ -36176,10 +35734,10 @@
         <v>2</v>
       </c>
       <c r="D288" s="40" t="n">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="E288" s="40" t="n">
-        <v>33.76068376068376</v>
+        <v>32.71604938271605</v>
       </c>
       <c r="F288" s="37" t="n"/>
     </row>
@@ -36196,10 +35754,10 @@
         <v>0</v>
       </c>
       <c r="D289" s="38" t="n">
-        <v>2122</v>
+        <v>2071</v>
       </c>
       <c r="E289" s="39" t="n">
-        <v>33.75218705264832</v>
+        <v>32.94098934308891</v>
       </c>
       <c r="F289" s="37" t="n"/>
     </row>
@@ -36216,10 +35774,10 @@
         <v>1</v>
       </c>
       <c r="D290" s="38" t="n">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="E290" s="39" t="n">
-        <v>33.30682360426277</v>
+        <v>33.37044695403213</v>
       </c>
       <c r="F290" s="37" t="n"/>
     </row>
@@ -36236,10 +35794,10 @@
         <v>2</v>
       </c>
       <c r="D291" s="38" t="n">
-        <v>2071</v>
+        <v>2118</v>
       </c>
       <c r="E291" s="39" t="n">
-        <v>32.94098934308891</v>
+        <v>33.68856370287895</v>
       </c>
       <c r="F291" s="37" t="n"/>
     </row>
@@ -36256,10 +35814,10 @@
         <v>0</v>
       </c>
       <c r="D292" s="38" t="n">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="E292" s="39" t="n">
-        <v>33.16733067729083</v>
+        <v>33.91434262948207</v>
       </c>
       <c r="F292" s="37" t="n"/>
     </row>
@@ -36276,10 +35834,10 @@
         <v>1</v>
       </c>
       <c r="D293" s="38" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="E293" s="39" t="n">
-        <v>32.81872509960159</v>
+        <v>33.01792828685259</v>
       </c>
       <c r="F293" s="37" t="n"/>
     </row>
@@ -36296,10 +35854,10 @@
         <v>2</v>
       </c>
       <c r="D294" s="40" t="n">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="E294" s="40" t="n">
-        <v>34.01394422310756</v>
+        <v>33.06772908366533</v>
       </c>
       <c r="F294" s="37" t="n"/>
     </row>
@@ -36316,10 +35874,10 @@
         <v>0</v>
       </c>
       <c r="D295" s="38" t="n">
-        <v>2546</v>
+        <v>2495</v>
       </c>
       <c r="E295" s="39" t="n">
-        <v>33.84288182905756</v>
+        <v>33.16496078692011</v>
       </c>
       <c r="F295" s="37" t="n"/>
     </row>
@@ -36336,10 +35894,10 @@
         <v>1</v>
       </c>
       <c r="D296" s="38" t="n">
-        <v>2482</v>
+        <v>2488</v>
       </c>
       <c r="E296" s="39" t="n">
-        <v>32.99215738402233</v>
+        <v>33.07191280074439</v>
       </c>
       <c r="F296" s="37" t="n"/>
     </row>
@@ -36356,10 +35914,10 @@
         <v>2</v>
       </c>
       <c r="D297" s="38" t="n">
-        <v>2495</v>
+        <v>2540</v>
       </c>
       <c r="E297" s="39" t="n">
-        <v>33.16496078692011</v>
+        <v>33.7631264123355</v>
       </c>
       <c r="F297" s="37" t="n"/>
     </row>
@@ -36376,10 +35934,10 @@
         <v>0</v>
       </c>
       <c r="D298" s="38" t="n">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="E298" s="39" t="n">
-        <v>31.34715025906736</v>
+        <v>33.29015544041451</v>
       </c>
       <c r="F298" s="37" t="n"/>
     </row>
@@ -36396,10 +35954,10 @@
         <v>1</v>
       </c>
       <c r="D299" s="38" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E299" s="39" t="n">
-        <v>35.10362694300518</v>
+        <v>35.36269430051814</v>
       </c>
       <c r="F299" s="37" t="n"/>
     </row>
@@ -36416,10 +35974,10 @@
         <v>2</v>
       </c>
       <c r="D300" s="40" t="n">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E300" s="40" t="n">
-        <v>33.54922279792746</v>
+        <v>31.34715025906736</v>
       </c>
       <c r="F300" s="37" t="n"/>
     </row>
@@ -36436,10 +35994,10 @@
         <v>0</v>
       </c>
       <c r="D301" s="38" t="n">
-        <v>2558</v>
+        <v>2529</v>
       </c>
       <c r="E301" s="39" t="n">
-        <v>33.7333509165238</v>
+        <v>33.35091652380324</v>
       </c>
       <c r="F301" s="37" t="n"/>
     </row>
@@ -36456,10 +36014,10 @@
         <v>1</v>
       </c>
       <c r="D302" s="38" t="n">
-        <v>2496</v>
+        <v>2502</v>
       </c>
       <c r="E302" s="39" t="n">
-        <v>32.91573255967295</v>
+        <v>32.99485691678755</v>
       </c>
       <c r="F302" s="37" t="n"/>
     </row>
@@ -36476,10 +36034,10 @@
         <v>2</v>
       </c>
       <c r="D303" s="38" t="n">
-        <v>2529</v>
+        <v>2552</v>
       </c>
       <c r="E303" s="39" t="n">
-        <v>33.35091652380324</v>
+        <v>33.6542265594092</v>
       </c>
       <c r="F303" s="37" t="n"/>
     </row>
@@ -36496,10 +36054,10 @@
         <v>0</v>
       </c>
       <c r="D304" s="38" t="n">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E304" s="39" t="n">
-        <v>32.30337078651686</v>
+        <v>31.32022471910113</v>
       </c>
       <c r="F304" s="37" t="n"/>
     </row>
@@ -36516,10 +36074,10 @@
         <v>1</v>
       </c>
       <c r="D305" s="38" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E305" s="39" t="n">
-        <v>36.09550561797753</v>
+        <v>36.37640449438202</v>
       </c>
       <c r="F305" s="37" t="n"/>
     </row>
@@ -36536,10 +36094,10 @@
         <v>2</v>
       </c>
       <c r="D306" s="40" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E306" s="40" t="n">
-        <v>31.60112359550562</v>
+        <v>32.30337078651686</v>
       </c>
       <c r="F306" s="37" t="n"/>
     </row>
@@ -36556,10 +36114,10 @@
         <v>0</v>
       </c>
       <c r="D307" s="38" t="n">
-        <v>2582</v>
+        <v>2520</v>
       </c>
       <c r="E307" s="39" t="n">
-        <v>33.93796004206099</v>
+        <v>33.12302839116719</v>
       </c>
       <c r="F307" s="37" t="n"/>
     </row>
@@ -36576,10 +36134,10 @@
         <v>1</v>
       </c>
       <c r="D308" s="38" t="n">
-        <v>2504</v>
+        <v>2511</v>
       </c>
       <c r="E308" s="39" t="n">
-        <v>32.91272344900105</v>
+        <v>33.00473186119874</v>
       </c>
       <c r="F308" s="37" t="n"/>
     </row>
@@ -36596,10 +36154,10 @@
         <v>2</v>
       </c>
       <c r="D309" s="38" t="n">
-        <v>2522</v>
+        <v>2577</v>
       </c>
       <c r="E309" s="39" t="n">
-        <v>33.14931650893796</v>
+        <v>33.87223974763407</v>
       </c>
       <c r="F309" s="37" t="n"/>
     </row>
@@ -36616,10 +36174,10 @@
         <v>0</v>
       </c>
       <c r="D310" s="38" t="n">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="E310" s="39" t="n">
-        <v>29.98544395924309</v>
+        <v>33.77001455604076</v>
       </c>
       <c r="F310" s="37" t="n"/>
     </row>
@@ -36636,10 +36194,10 @@
         <v>1</v>
       </c>
       <c r="D311" s="38" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E311" s="39" t="n">
-        <v>36.24454148471616</v>
+        <v>36.3901018922853</v>
       </c>
       <c r="F311" s="37" t="n"/>
     </row>
@@ -36656,10 +36214,10 @@
         <v>2</v>
       </c>
       <c r="D312" s="40" t="n">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="E312" s="40" t="n">
-        <v>33.77001455604076</v>
+        <v>29.83988355167395</v>
       </c>
       <c r="F312" s="37" t="n"/>
     </row>
@@ -36676,10 +36234,10 @@
         <v>0</v>
       </c>
       <c r="D313" s="38" t="n">
-        <v>2553</v>
+        <v>2547</v>
       </c>
       <c r="E313" s="39" t="n">
-        <v>33.57885045376825</v>
+        <v>33.49993423648559</v>
       </c>
       <c r="F313" s="37" t="n"/>
     </row>
@@ -36696,10 +36254,10 @@
         <v>1</v>
       </c>
       <c r="D314" s="38" t="n">
-        <v>2502</v>
+        <v>2509</v>
       </c>
       <c r="E314" s="39" t="n">
-        <v>32.90806260686571</v>
+        <v>33.00013152702881</v>
       </c>
       <c r="F314" s="37" t="n"/>
     </row>
@@ -36716,10 +36274,10 @@
         <v>2</v>
       </c>
       <c r="D315" s="38" t="n">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E315" s="39" t="n">
-        <v>33.51308693936604</v>
+        <v>33.49993423648559</v>
       </c>
       <c r="F315" s="37" t="n"/>
     </row>
@@ -36736,10 +36294,10 @@
         <v>0</v>
       </c>
       <c r="D316" s="38" t="n">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E316" s="39" t="n">
-        <v>33.95953757225433</v>
+        <v>29.6242774566474</v>
       </c>
       <c r="F316" s="37" t="n"/>
     </row>
@@ -36756,10 +36314,10 @@
         <v>1</v>
       </c>
       <c r="D317" s="38" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E317" s="39" t="n">
-        <v>36.27167630057804</v>
+        <v>36.41618497109826</v>
       </c>
       <c r="F317" s="37" t="n"/>
     </row>
@@ -36776,10 +36334,10 @@
         <v>2</v>
       </c>
       <c r="D318" s="40" t="n">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="E318" s="40" t="n">
-        <v>29.76878612716763</v>
+        <v>33.95953757225433</v>
       </c>
       <c r="F318" s="37" t="n"/>
     </row>
@@ -36796,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="D319" s="38" t="n">
-        <v>2528</v>
+        <v>2484</v>
       </c>
       <c r="E319" s="39" t="n">
-        <v>33.58129649309245</v>
+        <v>32.99681190223167</v>
       </c>
       <c r="F319" s="37" t="n"/>
     </row>
@@ -36816,10 +36374,10 @@
         <v>1</v>
       </c>
       <c r="D320" s="38" t="n">
-        <v>2517</v>
+        <v>2521</v>
       </c>
       <c r="E320" s="39" t="n">
-        <v>33.43517534537726</v>
+        <v>33.48831030818278</v>
       </c>
       <c r="F320" s="37" t="n"/>
     </row>
@@ -36836,10 +36394,10 @@
         <v>2</v>
       </c>
       <c r="D321" s="38" t="n">
-        <v>2483</v>
+        <v>2523</v>
       </c>
       <c r="E321" s="39" t="n">
-        <v>32.98352816153029</v>
+        <v>33.51487778958555</v>
       </c>
       <c r="F321" s="37" t="n"/>
     </row>
@@ -36856,10 +36414,10 @@
         <v>0</v>
       </c>
       <c r="D322" s="38" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E322" s="39" t="n">
-        <v>33.89830508474576</v>
+        <v>34.94132985658409</v>
       </c>
       <c r="F322" s="37" t="n"/>
     </row>
@@ -36876,10 +36434,10 @@
         <v>1</v>
       </c>
       <c r="D323" s="38" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E323" s="39" t="n">
-        <v>30.76923076923077</v>
+        <v>31.29074315514994</v>
       </c>
       <c r="F323" s="37" t="n"/>
     </row>
@@ -36896,10 +36454,10 @@
         <v>2</v>
       </c>
       <c r="D324" s="40" t="n">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E324" s="40" t="n">
-        <v>35.33246414602347</v>
+        <v>33.76792698826597</v>
       </c>
       <c r="F324" s="37" t="n"/>
     </row>
@@ -36916,10 +36474,10 @@
         <v>0</v>
       </c>
       <c r="D325" s="38" t="n">
-        <v>2462</v>
+        <v>2430</v>
       </c>
       <c r="E325" s="39" t="n">
-        <v>33.55594929807823</v>
+        <v>33.11980373449639</v>
       </c>
       <c r="F325" s="37" t="n"/>
     </row>
@@ -36936,10 +36494,10 @@
         <v>1</v>
       </c>
       <c r="D326" s="38" t="n">
-        <v>2443</v>
+        <v>2450</v>
       </c>
       <c r="E326" s="39" t="n">
-        <v>33.29698786970151</v>
+        <v>33.39239471173504</v>
       </c>
       <c r="F326" s="37" t="n"/>
     </row>
@@ -36956,10 +36514,10 @@
         <v>2</v>
       </c>
       <c r="D327" s="38" t="n">
-        <v>2432</v>
+        <v>2457</v>
       </c>
       <c r="E327" s="39" t="n">
-        <v>33.14706283222025</v>
+        <v>33.48780155376857</v>
       </c>
       <c r="F327" s="37" t="n"/>
     </row>
@@ -36976,10 +36534,10 @@
         <v>0</v>
       </c>
       <c r="D328" s="38" t="n">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E328" s="39" t="n">
-        <v>34.02922755741128</v>
+        <v>33.61169102296451</v>
       </c>
       <c r="F328" s="37" t="n"/>
     </row>
@@ -36996,10 +36554,10 @@
         <v>1</v>
       </c>
       <c r="D329" s="38" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E329" s="39" t="n">
-        <v>32.35908141962422</v>
+        <v>32.46346555323591</v>
       </c>
       <c r="F329" s="37" t="n"/>
     </row>
@@ -37016,10 +36574,10 @@
         <v>2</v>
       </c>
       <c r="D330" s="40" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E330" s="40" t="n">
-        <v>33.61169102296451</v>
+        <v>33.92484342379959</v>
       </c>
       <c r="F330" s="37" t="n"/>
     </row>
@@ -37036,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="D331" s="38" t="n">
-        <v>2544</v>
+        <v>2493</v>
       </c>
       <c r="E331" s="39" t="n">
-        <v>33.89740173217855</v>
+        <v>33.217854763491</v>
       </c>
       <c r="F331" s="37" t="n"/>
     </row>
@@ -37056,10 +36614,10 @@
         <v>1</v>
       </c>
       <c r="D332" s="38" t="n">
-        <v>2467</v>
+        <v>2473</v>
       </c>
       <c r="E332" s="39" t="n">
-        <v>32.87141905396403</v>
+        <v>32.95136575616256</v>
       </c>
       <c r="F332" s="37" t="n"/>
     </row>
@@ -37076,10 +36634,10 @@
         <v>2</v>
       </c>
       <c r="D333" s="38" t="n">
-        <v>2494</v>
+        <v>2539</v>
       </c>
       <c r="E333" s="39" t="n">
-        <v>33.23117921385742</v>
+        <v>33.83077948034644</v>
       </c>
       <c r="F333" s="37" t="n"/>
     </row>
@@ -37096,10 +36654,10 @@
         <v>0</v>
       </c>
       <c r="D334" s="38" t="n">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="E334" s="39" t="n">
-        <v>30.88607594936709</v>
+        <v>32.78481012658228</v>
       </c>
       <c r="F334" s="37" t="n"/>
     </row>
@@ -37116,10 +36674,10 @@
         <v>1</v>
       </c>
       <c r="D335" s="38" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E335" s="39" t="n">
-        <v>36.20253164556962</v>
+        <v>36.45569620253165</v>
       </c>
       <c r="F335" s="37" t="n"/>
     </row>
@@ -37136,10 +36694,10 @@
         <v>2</v>
       </c>
       <c r="D336" s="40" t="n">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="E336" s="40" t="n">
-        <v>32.91139240506329</v>
+        <v>30.75949367088607</v>
       </c>
       <c r="F336" s="37" t="n"/>
     </row>
@@ -37156,10 +36714,10 @@
         <v>0</v>
       </c>
       <c r="D337" s="38" t="n">
-        <v>1049</v>
+        <v>1094</v>
       </c>
       <c r="E337" s="39" t="n">
-        <v>32.86340852130326</v>
+        <v>34.27318295739348</v>
       </c>
       <c r="F337" s="37" t="n"/>
     </row>
@@ -37176,10 +36734,10 @@
         <v>1</v>
       </c>
       <c r="D338" s="38" t="n">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E338" s="39" t="n">
-        <v>32.89473684210527</v>
+        <v>32.95739348370928</v>
       </c>
       <c r="F338" s="37" t="n"/>
     </row>
@@ -37196,10 +36754,10 @@
         <v>2</v>
       </c>
       <c r="D339" s="38" t="n">
-        <v>1093</v>
+        <v>1046</v>
       </c>
       <c r="E339" s="39" t="n">
-        <v>34.24185463659148</v>
+        <v>32.76942355889724</v>
       </c>
       <c r="F339" s="37" t="n"/>
     </row>
@@ -37216,10 +36774,10 @@
         <v>0</v>
       </c>
       <c r="D340" s="38" t="n">
-        <v>2287</v>
+        <v>2239</v>
       </c>
       <c r="E340" s="39" t="n">
-        <v>33.59283196239718</v>
+        <v>32.88777908343125</v>
       </c>
       <c r="F340" s="37" t="n"/>
     </row>
@@ -37236,10 +36794,10 @@
         <v>1</v>
       </c>
       <c r="D341" s="38" t="n">
-        <v>2280</v>
+        <v>2286</v>
       </c>
       <c r="E341" s="39" t="n">
-        <v>33.49001175088132</v>
+        <v>33.57814336075206</v>
       </c>
       <c r="F341" s="37" t="n"/>
     </row>
@@ -37256,10 +36814,10 @@
         <v>2</v>
       </c>
       <c r="D342" s="40" t="n">
-        <v>2241</v>
+        <v>2283</v>
       </c>
       <c r="E342" s="40" t="n">
-        <v>32.91715628672151</v>
+        <v>33.53407755581669</v>
       </c>
       <c r="F342" s="37" t="n"/>
     </row>
@@ -37276,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="D343" s="38" t="n">
-        <v>764</v>
+        <v>803</v>
       </c>
       <c r="E343" s="39" t="n">
-        <v>32.48299319727892</v>
+        <v>34.14115646258503</v>
       </c>
       <c r="F343" s="37" t="n"/>
     </row>
@@ -37296,10 +36854,10 @@
         <v>1</v>
       </c>
       <c r="D344" s="38" t="n">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E344" s="39" t="n">
-        <v>33.41836734693878</v>
+        <v>33.4608843537415</v>
       </c>
       <c r="F344" s="37" t="n"/>
     </row>
@@ -37316,10 +36874,10 @@
         <v>2</v>
       </c>
       <c r="D345" s="38" t="n">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="E345" s="39" t="n">
-        <v>34.09863945578231</v>
+        <v>32.39795918367347</v>
       </c>
       <c r="F345" s="37" t="n"/>
     </row>
@@ -37336,10 +36894,10 @@
         <v>0</v>
       </c>
       <c r="D346" s="38" t="n">
-        <v>2572</v>
+        <v>2530</v>
       </c>
       <c r="E346" s="39" t="n">
-        <v>33.62970711297071</v>
+        <v>33.08054393305439</v>
       </c>
       <c r="F346" s="37" t="n"/>
     </row>
@@ -37356,10 +36914,10 @@
         <v>1</v>
       </c>
       <c r="D347" s="38" t="n">
-        <v>2544</v>
+        <v>2551</v>
       </c>
       <c r="E347" s="39" t="n">
-        <v>33.26359832635983</v>
+        <v>33.35512552301255</v>
       </c>
       <c r="F347" s="37" t="n"/>
     </row>
@@ -37376,10 +36934,10 @@
         <v>2</v>
       </c>
       <c r="D348" s="40" t="n">
-        <v>2532</v>
+        <v>2567</v>
       </c>
       <c r="E348" s="40" t="n">
-        <v>33.10669456066946</v>
+        <v>33.56433054393305</v>
       </c>
       <c r="F348" s="37" t="n"/>
     </row>
@@ -37396,10 +36954,10 @@
         <v>0</v>
       </c>
       <c r="D349" s="38" t="n">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="E349" s="39" t="n">
-        <v>33.31486611265005</v>
+        <v>33.3702677746999</v>
       </c>
       <c r="F349" s="37" t="n"/>
     </row>
@@ -37416,10 +36974,10 @@
         <v>1</v>
       </c>
       <c r="D350" s="38" t="n">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="E350" s="39" t="n">
-        <v>33.33333333333333</v>
+        <v>33.40720221606649</v>
       </c>
       <c r="F350" s="37" t="n"/>
     </row>
@@ -37436,10 +36994,10 @@
         <v>2</v>
       </c>
       <c r="D351" s="38" t="n">
-        <v>1806</v>
+        <v>1799</v>
       </c>
       <c r="E351" s="39" t="n">
-        <v>33.35180055401662</v>
+        <v>33.22253000923361</v>
       </c>
       <c r="F351" s="37" t="n"/>
     </row>
@@ -37456,10 +37014,10 @@
         <v>0</v>
       </c>
       <c r="D352" s="38" t="n">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="E352" s="39" t="n">
-        <v>33.41330425299891</v>
+        <v>33.2824427480916</v>
       </c>
       <c r="F352" s="37" t="n"/>
     </row>
@@ -37476,10 +37034,10 @@
         <v>1</v>
       </c>
       <c r="D353" s="38" t="n">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="E353" s="39" t="n">
-        <v>33.26063249727372</v>
+        <v>33.34787350054525</v>
       </c>
       <c r="F353" s="37" t="n"/>
     </row>
@@ -37496,10 +37054,10 @@
         <v>2</v>
       </c>
       <c r="D354" s="40" t="n">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="E354" s="40" t="n">
-        <v>33.32606324972737</v>
+        <v>33.36968375136314</v>
       </c>
       <c r="F354" s="37" t="n"/>
     </row>
@@ -37516,10 +37074,10 @@
         <v>0</v>
       </c>
       <c r="D355" s="38" t="n">
-        <v>1377</v>
+        <v>1411</v>
       </c>
       <c r="E355" s="39" t="n">
-        <v>33.13282001924927</v>
+        <v>33.95091434071222</v>
       </c>
       <c r="F355" s="37" t="n"/>
     </row>
@@ -37536,10 +37094,10 @@
         <v>1</v>
       </c>
       <c r="D356" s="38" t="n">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="E356" s="39" t="n">
-        <v>32.96438883541867</v>
+        <v>33.06063522617902</v>
       </c>
       <c r="F356" s="37" t="n"/>
     </row>
@@ -37556,10 +37114,10 @@
         <v>2</v>
       </c>
       <c r="D357" s="38" t="n">
-        <v>1409</v>
+        <v>1371</v>
       </c>
       <c r="E357" s="39" t="n">
-        <v>33.90279114533205</v>
+        <v>32.98845043310876</v>
       </c>
       <c r="F357" s="37" t="n"/>
     </row>
@@ -37576,10 +37134,10 @@
         <v>0</v>
       </c>
       <c r="D358" s="38" t="n">
-        <v>1959</v>
+        <v>1922</v>
       </c>
       <c r="E358" s="39" t="n">
-        <v>33.52156057494867</v>
+        <v>32.88843258042436</v>
       </c>
       <c r="F358" s="37" t="n"/>
     </row>
@@ -37596,10 +37154,10 @@
         <v>1</v>
       </c>
       <c r="D359" s="38" t="n">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="E359" s="39" t="n">
-        <v>33.53867214236824</v>
+        <v>33.60711841204655</v>
       </c>
     </row>
     <row r="360" ht="25" customHeight="1">
@@ -37615,10 +37173,10 @@
         <v>2</v>
       </c>
       <c r="D360" s="39" t="n">
-        <v>1925</v>
+        <v>1958</v>
       </c>
       <c r="E360" s="39" t="n">
-        <v>32.93976728268309</v>
+        <v>33.50444900752909</v>
       </c>
     </row>
   </sheetData>
